--- a/policyBrief_out/Tables_report.xlsx
+++ b/policyBrief_out/Tables_report.xlsx
@@ -3,18 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580C3F1E-A952-4EF2-9F60-5DF63529328E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19110A4-710A-4AD8-93BB-3694F4B0CA18}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PIT_stock" sheetId="1" r:id="rId1"/>
-    <sheet name="PIT_stock (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="Sales" sheetId="2" r:id="rId3"/>
-    <sheet name="other" sheetId="6" r:id="rId4"/>
-    <sheet name="TaxStr" sheetId="7" r:id="rId5"/>
-    <sheet name="SimInput1" sheetId="9" r:id="rId6"/>
-    <sheet name="SimInputs2" sheetId="8" r:id="rId7"/>
+    <sheet name="Fat-tails" sheetId="10" r:id="rId1"/>
+    <sheet name="Fat-tails (2)" sheetId="17" r:id="rId2"/>
+    <sheet name="PIT_stock_real" sheetId="12" r:id="rId3"/>
+    <sheet name="Sales" sheetId="13" r:id="rId4"/>
+    <sheet name="other" sheetId="6" r:id="rId5"/>
+    <sheet name="TaxStr" sheetId="7" r:id="rId6"/>
+    <sheet name="SimInput1" sheetId="9" r:id="rId7"/>
+    <sheet name="SimInput1_new" sheetId="15" r:id="rId8"/>
+    <sheet name="SimInputs2" sheetId="8" r:id="rId9"/>
+    <sheet name="PIT_stock_real (2)" sheetId="14" r:id="rId10"/>
+    <sheet name="PIT_stock_nom" sheetId="1" r:id="rId11"/>
+    <sheet name="PIT_stock_nom (2)" sheetId="5" r:id="rId12"/>
+    <sheet name="Sales_old" sheetId="2" r:id="rId13"/>
+    <sheet name="Probs" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="114">
   <si>
     <t>Stock return</t>
   </si>
@@ -319,6 +326,81 @@
   </si>
   <si>
     <t>e for PIT states</t>
+  </si>
+  <si>
+    <t>60/40 portfolio; Normal distribution</t>
+  </si>
+  <si>
+    <t>60/40 portfolio; Simulated distribution</t>
+  </si>
+  <si>
+    <t>Stock; Normal distribution</t>
+  </si>
+  <si>
+    <t>Stock; Simulated distribution</t>
+  </si>
+  <si>
+    <t>Stock; Bootstrapped distribution</t>
+  </si>
+  <si>
+    <t>60/40 portfolio; Bootstrapped distribution</t>
+  </si>
+  <si>
+    <t>Probability of return lower than</t>
+  </si>
+  <si>
+    <t>GDP only 
+(1985-2015)</t>
+  </si>
+  <si>
+    <t>GDP w/ dummy for all recessions
+ (1985-2015)</t>
+  </si>
+  <si>
+    <t>GDP w/ dummy for the two recent recessions
+ (1985-2015)</t>
+  </si>
+  <si>
+    <t>(2')</t>
+  </si>
+  <si>
+    <t>GDP w/ dummy for the two recent recessions
+ (1995-2015)</t>
+  </si>
+  <si>
+    <t>The recent two recessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes: 
+1. The dummy variable for recession takes 1 in 2001, 2002, 2008 and 2009, 2010, and 0 in other years.  
+2. Estimated parameters significant at 5% level are underscored. </t>
+  </si>
+  <si>
+    <t>All recessions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General sales tax </t>
+  </si>
+  <si>
+    <t>70/30 portfolio; Normal distribution</t>
+  </si>
+  <si>
+    <t>70/30 portfolio; Bootstrapped distribution</t>
+  </si>
+  <si>
+    <t>Assumption 1</t>
+  </si>
+  <si>
+    <t>Base growth rate</t>
+  </si>
+  <si>
+    <t>Assumption 2</t>
+  </si>
+  <si>
+    <t>Assumptions on elasticities of tax revenue for simulation analysis</t>
+  </si>
+  <si>
+    <t>Real growth of selective sales tax</t>
   </si>
 </sst>
 </file>
@@ -393,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -599,13 +681,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -808,95 +930,8 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -960,11 +995,216 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -974,6 +1214,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000E4"/>
+      <color rgb="FF4508DC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -983,6 +1229,559 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18174</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE16693C-65FB-443E-8BED-04E1EC33A8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="5867400"/>
+          <a:ext cx="4475874" cy="4000883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>399174</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137ED73C-DE15-4F77-BF43-5D4EC3FCD70F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162549" y="7471643"/>
+          <a:ext cx="4513975" cy="4034941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>124992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218466</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>10692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D022134D-7313-4B74-9552-C329E5B99AF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="12012192"/>
+          <a:ext cx="5200041" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54092D4E-6928-4E7F-8429-EEBAA899AF51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209549" y="4942848"/>
+          <a:ext cx="4657725" cy="4163436"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>218373</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1DE045-C113-4368-89CE-E6DD8F4B4F01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838699" y="4943475"/>
+          <a:ext cx="4657024" cy="4162809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAFFC64-9F62-4814-9317-4C189E12C2D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5400675"/>
+          <a:ext cx="1733550" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-- Normal distribution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000E4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- Empirical distribution</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000E4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E6D9EC-8230-4950-A864-3766CFE8850F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276849" y="5381625"/>
+          <a:ext cx="1733550" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-- Normal distribution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000E4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- Empirical distribution</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000E4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1800224</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28667F6B-5B3E-44D9-BF13-3D37A3C6DACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409824" y="7324724"/>
+          <a:ext cx="4667251" cy="4171951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2228849</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760A987C-CBBC-4629-9603-13C556C6B879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838449" y="9705975"/>
+          <a:ext cx="1733550" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-- Normal distribution</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0000E4"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-- Empirical distribution</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0000E4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,509 +2046,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8969CDC3-6ACB-4EF0-B3FB-72A8951BB9D5}">
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="120" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1.4392436098165808</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1.3952482971643869</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.99459667888554504</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1.144021537340576</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1.1258407727411603</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="101"/>
+      <c r="C4" s="106">
+        <v>-0.4</v>
+      </c>
+      <c r="D4" s="106">
+        <v>-0.3</v>
+      </c>
+      <c r="E4" s="106">
+        <v>-0.2</v>
+      </c>
+      <c r="F4" s="106">
+        <v>-0.1</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12">
-        <v>1.8965636641992889E-4</v>
-      </c>
-      <c r="D5" s="12">
-        <v>4.6315886754617815E-4</v>
-      </c>
-      <c r="E5" s="12">
-        <v>6.0707033891329752E-3</v>
-      </c>
-      <c r="F5" s="12">
-        <v>3.7367974677333052E-3</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1.2943508312293506E-3</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="107" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="102">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D5" s="102">
+        <v>9.3333333333333341E-3</v>
+      </c>
+      <c r="E5" s="102">
+        <v>3.6183333333333331E-2</v>
+      </c>
+      <c r="F5" s="102">
+        <v>0.1125</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
-        <v>0.25005151524504055</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
-        <v>-5.5381481209631406E-2</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="104">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D6" s="104">
+        <v>1.2283333333333334E-2</v>
+      </c>
+      <c r="E6" s="104">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="F6" s="104">
+        <v>0.10453333333333334</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
-        <v>0.62705046652566521</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
-        <v>0.91434919815746851</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="106">
+        <v>-0.4</v>
+      </c>
+      <c r="D10" s="106">
+        <v>-0.3</v>
+      </c>
+      <c r="E10" s="106">
+        <v>-0.2</v>
+      </c>
+      <c r="F10" s="106">
+        <v>-0.1</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="105">
+        <v>6.6666666666666664E-4</v>
+      </c>
+      <c r="D11" s="105">
+        <v>4.6333333333333331E-3</v>
+      </c>
+      <c r="E11" s="105">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="F11" s="105">
+        <v>9.8016666666666669E-2</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="105">
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.15566334752024857</v>
-      </c>
-      <c r="F8" s="11">
-        <v>7.8431097630283012E-2</v>
-      </c>
-      <c r="G8" s="11">
-        <v>8.1555211671815883E-2</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
-        <v>9.2813550614614959E-4</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.18554102993571669</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.1091983405758689</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
-        <v>0.1771495436267542</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.17222562943223474</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
-        <v>4.0323874168262046E-2</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1.667682300582499E-2</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11">
-        <v>-6.7885721085154836E-3</v>
-      </c>
-      <c r="D12" s="11">
-        <v>-7.304699140441879E-3</v>
-      </c>
-      <c r="E12" s="11">
-        <v>-1.1754519001688802E-2</v>
-      </c>
-      <c r="F12" s="11">
-        <v>-9.5106880258165657E-3</v>
-      </c>
-      <c r="G12" s="11">
-        <v>-9.6908561969165814E-3</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="105">
+        <v>1.5866666666666668E-2</v>
+      </c>
+      <c r="E12" s="105">
+        <v>3.1966666666666664E-2</v>
+      </c>
+      <c r="F12" s="105">
+        <v>0.13046666666666668</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12">
-        <v>0.56614703710126002</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.54314137884098734</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.26379498085403719</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.3457076367456452</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0.32254988923554573</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14">
-        <v>38</v>
-      </c>
-      <c r="D14" s="14">
-        <v>38</v>
-      </c>
-      <c r="E14" s="14">
-        <v>38</v>
-      </c>
-      <c r="F14" s="14">
-        <v>38</v>
-      </c>
-      <c r="G14" s="14">
-        <v>38</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.30566541074933518</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.29069709635633112</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.48341395624872252</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.53998913899059575</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0.55376503919168529</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-    </row>
-    <row r="17" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="5">
-        <v>1.0047358342111095</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1.1207501256387866</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.94279952977807913</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="6">
-        <v>1.5631344794295841E-4</v>
-      </c>
-      <c r="F19" s="6">
-        <v>9.5982454577004064E-6</v>
-      </c>
-      <c r="G19" s="6">
-        <v>3.5822955165051595E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5">
-        <v>-0.49653068092040525</v>
-      </c>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="6">
-        <v>0.12367275335389037</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="5">
-        <v>0.11212050012736459</v>
-      </c>
-      <c r="F22" s="5">
-        <v>6.2835321727119878E-2</v>
-      </c>
-      <c r="G22" s="5">
-        <v>7.3601713017413528E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="6">
-        <v>1.357043041187717E-8</v>
-      </c>
-      <c r="F23" s="6">
-        <v>2.0985522621405736E-3</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1.5125131299076744E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="5">
-        <v>9.7527876347524856E-2</v>
-      </c>
-      <c r="G24" s="5">
-        <v>8.3665101565157121E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="6">
-        <v>8.7928643381423785E-4</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1.6445148439881117E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="5">
-        <v>-9.3408236076665783E-3</v>
-      </c>
-      <c r="F26" s="5">
-        <v>-5.565109354769367E-3</v>
-      </c>
-      <c r="G26" s="5">
-        <v>-5.7882646283108855E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="6">
-        <v>0.22070473811875418</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0.40345246814943603</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0.4966904716238485</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="16">
-        <v>38</v>
-      </c>
-      <c r="F28" s="16">
-        <v>38</v>
-      </c>
-      <c r="G28" s="16">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="5">
-        <v>0.72602714664401657</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.79510827890217706</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.7906694981397554</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F644A70-15E8-470C-9476-7BBEB7370E96}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A2CBE0-AF60-4563-9A47-BEE291487850}">
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L3"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,105 +2304,105 @@
     </row>
     <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
       <c r="M2" s="27"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="30"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="80" t="s">
+      <c r="D3" s="132"/>
+      <c r="E3" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="132"/>
+      <c r="G3" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="80" t="s">
+      <c r="H3" s="132"/>
+      <c r="I3" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="80" t="s">
+      <c r="J3" s="132"/>
+      <c r="K3" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="81"/>
+      <c r="L3" s="132"/>
       <c r="M3" s="27"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="30"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="84" t="s">
+      <c r="D4" s="132"/>
+      <c r="E4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="82" t="s">
+      <c r="F4" s="126"/>
+      <c r="G4" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84" t="s">
+      <c r="H4" s="126"/>
+      <c r="I4" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="83"/>
-      <c r="K4" s="82" t="s">
+      <c r="J4" s="126"/>
+      <c r="K4" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="82"/>
+      <c r="L4" s="125"/>
       <c r="M4" s="27"/>
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="32"/>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="82" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="82" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="82" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="82" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="82" t="s">
         <v>10</v>
       </c>
       <c r="M5" s="27"/>
@@ -2131,72 +2659,72 @@
       <c r="B16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="128">
         <v>38</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87">
+      <c r="D16" s="129"/>
+      <c r="E16" s="130">
         <v>38</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="85">
+      <c r="F16" s="129"/>
+      <c r="G16" s="128">
         <v>38</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87">
+      <c r="H16" s="129"/>
+      <c r="I16" s="130">
         <v>38</v>
       </c>
-      <c r="J16" s="86"/>
-      <c r="K16" s="85">
+      <c r="J16" s="129"/>
+      <c r="K16" s="128">
         <v>38</v>
       </c>
-      <c r="L16" s="85"/>
+      <c r="L16" s="128"/>
       <c r="M16" s="27"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="122">
         <v>0.30566541074933518</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79">
+      <c r="D17" s="123"/>
+      <c r="E17" s="124">
         <v>0.29069709635633112</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="77">
+      <c r="F17" s="123"/>
+      <c r="G17" s="122">
         <v>0.72602714664401657</v>
       </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79">
+      <c r="H17" s="123"/>
+      <c r="I17" s="124">
         <v>0.79510827890217706</v>
       </c>
-      <c r="J17" s="78"/>
-      <c r="K17" s="77">
+      <c r="J17" s="123"/>
+      <c r="K17" s="122">
         <v>0.7906694981397554</v>
       </c>
-      <c r="L17" s="77"/>
+      <c r="L17" s="122"/>
       <c r="M17" s="27"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
       <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2206,18 +2734,18 @@
       <c r="D19" s="24"/>
       <c r="E19" s="17"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="80" t="s">
+      <c r="G19" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="80" t="s">
+      <c r="H19" s="132"/>
+      <c r="I19" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="81"/>
-      <c r="K19" s="80" t="s">
+      <c r="J19" s="132"/>
+      <c r="K19" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="132"/>
       <c r="M19" s="27"/>
     </row>
     <row r="20" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2227,43 +2755,43 @@
       <c r="D20" s="24"/>
       <c r="E20" s="17"/>
       <c r="F20" s="52"/>
-      <c r="G20" s="88" t="s">
+      <c r="G20" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="84" t="s">
+      <c r="H20" s="132"/>
+      <c r="I20" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="82" t="s">
+      <c r="J20" s="126"/>
+      <c r="K20" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="82"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="44"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="53"/>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="82" t="s">
         <v>50</v>
       </c>
       <c r="H21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="82" t="s">
         <v>50</v>
       </c>
       <c r="J21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="L21" s="82" t="s">
         <v>10</v>
       </c>
       <c r="M21" s="27"/>
@@ -2485,41 +3013,41 @@
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="54"/>
-      <c r="G32" s="87">
+      <c r="G32" s="130">
         <v>38</v>
       </c>
-      <c r="H32" s="86"/>
-      <c r="I32" s="87">
+      <c r="H32" s="129"/>
+      <c r="I32" s="130">
         <v>38</v>
       </c>
-      <c r="J32" s="86"/>
-      <c r="K32" s="85">
+      <c r="J32" s="129"/>
+      <c r="K32" s="128">
         <v>38</v>
       </c>
-      <c r="L32" s="85"/>
+      <c r="L32" s="128"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="79">
+      <c r="G33" s="124">
         <v>0.48341395624872252</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="79">
+      <c r="H33" s="123"/>
+      <c r="I33" s="124">
         <v>0.53998913899059575</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="K33" s="77">
+      <c r="J33" s="123"/>
+      <c r="K33" s="122">
         <v>0.55376503919168529</v>
       </c>
-      <c r="L33" s="77"/>
+      <c r="L33" s="122"/>
       <c r="M33" s="27"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2610,12 +3138,1546 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="24"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="24"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="24"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="19"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="24"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="19"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="24"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="82"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="19"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G54" s="59"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="19"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G55" s="57"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G56" s="27"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G57" s="128"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G58" s="122"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.4392436098165808</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1.3952482971643869</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.99459667888554504</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1.144021537340576</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1.1258407727411603</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12">
+        <v>1.8965636641992889E-4</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4.6315886754617815E-4</v>
+      </c>
+      <c r="E5" s="12">
+        <v>6.0707033891329752E-3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3.7367974677333052E-3</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.2943508312293506E-3</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
+        <v>0.25005151524504055</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>-5.5381481209631406E-2</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
+        <v>0.62705046652566521</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <v>0.91434919815746851</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.15566334752024857</v>
+      </c>
+      <c r="F8" s="11">
+        <v>7.8431097630283012E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>8.1555211671815883E-2</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>9.2813550614614959E-4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.18554102993571669</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.1091983405758689</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <v>0.1771495436267542</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.17222562943223474</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <v>4.0323874168262046E-2</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1.667682300582499E-2</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11">
+        <v>-6.7885721085154836E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <v>-7.304699140441879E-3</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-1.1754519001688802E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-9.5106880258165657E-3</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-9.6908561969165814E-3</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12">
+        <v>0.56614703710126002</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.54314137884098734</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.26379498085403719</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.3457076367456452</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0.32254988923554573</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="14">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14">
+        <v>38</v>
+      </c>
+      <c r="E14" s="14">
+        <v>38</v>
+      </c>
+      <c r="F14" s="14">
+        <v>38</v>
+      </c>
+      <c r="G14" s="14">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.30566541074933518</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.29069709635633112</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.48341395624872252</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.53998913899059575</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.55376503919168529</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+    </row>
+    <row r="17" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="5">
+        <v>1.0047358342111095</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.1207501256387866</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.94279952977807913</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="6">
+        <v>1.5631344794295841E-4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>9.5982454577004064E-6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3.5822955165051595E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5">
+        <v>-0.49653068092040525</v>
+      </c>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="6">
+        <v>0.12367275335389037</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="5">
+        <v>0.11212050012736459</v>
+      </c>
+      <c r="F22" s="5">
+        <v>6.2835321727119878E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>7.3601713017413528E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="6">
+        <v>1.357043041187717E-8</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2.0985522621405736E-3</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1.5125131299076744E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="5">
+        <v>9.7527876347524856E-2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>8.3665101565157121E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="6">
+        <v>8.7928643381423785E-4</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1.6445148439881117E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="5">
+        <v>-9.3408236076665783E-3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>-5.565109354769367E-3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>-5.7882646283108855E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="6">
+        <v>0.22070473811875418</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.40345246814943603</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.4966904716238485</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16">
+        <v>38</v>
+      </c>
+      <c r="F28" s="16">
+        <v>38</v>
+      </c>
+      <c r="G28" s="16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="5">
+        <v>0.72602714664401657</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.79510827890217706</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.7906694981397554</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B16:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F644A70-15E8-470C-9476-7BBEB7370E96}">
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="12" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="132"/>
+      <c r="G3" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="132"/>
+      <c r="I3" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="132"/>
+      <c r="K3" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="132"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="132"/>
+      <c r="E4" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="126"/>
+      <c r="G4" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="126"/>
+      <c r="I4" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="126"/>
+      <c r="K4" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="125"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="70">
+        <v>1.4392436098165808</v>
+      </c>
+      <c r="D6" s="46">
+        <v>1.8965636641992889E-4</v>
+      </c>
+      <c r="E6" s="72">
+        <v>1.3952482971643869</v>
+      </c>
+      <c r="F6" s="46">
+        <v>4.6315886754617815E-4</v>
+      </c>
+      <c r="G6" s="70">
+        <v>1.0047358342111095</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1.5631344794295841E-4</v>
+      </c>
+      <c r="I6" s="71">
+        <v>1.1207501256387866</v>
+      </c>
+      <c r="J6" s="46">
+        <v>9.5982454577004064E-6</v>
+      </c>
+      <c r="K6" s="70">
+        <v>0.94279952977807913</v>
+      </c>
+      <c r="L6" s="19">
+        <v>3.5822955165051595E-3</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="61">
+        <v>0.25005151524504055</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.62705046652566521</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="61">
+        <v>-0.49653068092040525</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0.12367275335389037</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="70">
+        <v>0.11212050012736459</v>
+      </c>
+      <c r="H10" s="46">
+        <v>1.357043041187717E-8</v>
+      </c>
+      <c r="I10" s="71">
+        <v>6.2835321727119878E-2</v>
+      </c>
+      <c r="J10" s="46">
+        <v>2.0985522621405736E-3</v>
+      </c>
+      <c r="K10" s="70">
+        <v>7.3601713017413528E-2</v>
+      </c>
+      <c r="L10" s="19">
+        <v>1.5125131299076744E-2</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="71">
+        <v>9.7527876347524856E-2</v>
+      </c>
+      <c r="J12" s="46">
+        <v>8.7928643381423785E-4</v>
+      </c>
+      <c r="K12" s="70">
+        <v>8.3665101565157093E-2</v>
+      </c>
+      <c r="L12" s="19">
+        <v>1.6445148439881117E-2</v>
+      </c>
+      <c r="M12" s="27"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="57">
+        <v>-6.7885721085154836E-3</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.56614703710126002</v>
+      </c>
+      <c r="E14" s="61">
+        <v>-7.304699140441879E-3</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.54314137884098734</v>
+      </c>
+      <c r="G14" s="57">
+        <v>-9.3408236076665783E-3</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.22070473811875418</v>
+      </c>
+      <c r="I14" s="61">
+        <v>-5.565109354769367E-3</v>
+      </c>
+      <c r="J14" s="46">
+        <v>0.40345246814943603</v>
+      </c>
+      <c r="K14" s="57">
+        <v>-5.7882646283108855E-3</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0.4966904716238485</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="128">
+        <v>38</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130">
+        <v>38</v>
+      </c>
+      <c r="F16" s="129"/>
+      <c r="G16" s="128">
+        <v>38</v>
+      </c>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130">
+        <v>38</v>
+      </c>
+      <c r="J16" s="129"/>
+      <c r="K16" s="128">
+        <v>38</v>
+      </c>
+      <c r="L16" s="128"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="122">
+        <v>0.30566541074933518</v>
+      </c>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124">
+        <v>0.29069709635633112</v>
+      </c>
+      <c r="F17" s="123"/>
+      <c r="G17" s="122">
+        <v>0.72602714664401657</v>
+      </c>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124">
+        <v>0.79510827890217706</v>
+      </c>
+      <c r="J17" s="123"/>
+      <c r="K17" s="122">
+        <v>0.7906694981397554</v>
+      </c>
+      <c r="L17" s="122"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="131" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="132"/>
+      <c r="I19" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="132"/>
+      <c r="K19" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="132"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="132"/>
+      <c r="I20" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="126"/>
+      <c r="K20" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="125"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="71">
+        <v>0.99459667888554504</v>
+      </c>
+      <c r="H22" s="46">
+        <v>6.0707033891329752E-3</v>
+      </c>
+      <c r="I22" s="71">
+        <v>1.144021537340576</v>
+      </c>
+      <c r="J22" s="46">
+        <v>3.7367974677333052E-3</v>
+      </c>
+      <c r="K22" s="70">
+        <v>1.1258407727411603</v>
+      </c>
+      <c r="L22" s="19">
+        <v>1.2943508312293506E-3</v>
+      </c>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="61">
+        <v>-5.5381481209631406E-2</v>
+      </c>
+      <c r="J24" s="46">
+        <v>0.91434919815746851</v>
+      </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="71">
+        <v>0.15566334752024857</v>
+      </c>
+      <c r="H26" s="46">
+        <v>9.2813550614614959E-4</v>
+      </c>
+      <c r="I26" s="61">
+        <v>7.8431097630283012E-2</v>
+      </c>
+      <c r="J26" s="46">
+        <v>0.18554102993571669</v>
+      </c>
+      <c r="K26" s="57">
+        <v>8.1555211671815883E-2</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0.1091983405758689</v>
+      </c>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="71">
+        <v>0.1771495436267542</v>
+      </c>
+      <c r="J28" s="46">
+        <v>4.0323874168262046E-2</v>
+      </c>
+      <c r="K28" s="70">
+        <v>0.17222562943223474</v>
+      </c>
+      <c r="L28" s="19">
+        <v>1.667682300582499E-2</v>
+      </c>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="61">
+        <v>-1.1754519001688802E-2</v>
+      </c>
+      <c r="H30" s="46">
+        <v>0.26379498085403719</v>
+      </c>
+      <c r="I30" s="61">
+        <v>-9.5106880258165657E-3</v>
+      </c>
+      <c r="J30" s="46">
+        <v>0.3457076367456452</v>
+      </c>
+      <c r="K30" s="57">
+        <v>-9.6908561969165814E-3</v>
+      </c>
+      <c r="L30" s="19">
+        <v>0.32254988923554573</v>
+      </c>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="130">
+        <v>38</v>
+      </c>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130">
+        <v>38</v>
+      </c>
+      <c r="J32" s="129"/>
+      <c r="K32" s="128">
+        <v>38</v>
+      </c>
+      <c r="L32" s="128"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="124">
+        <v>0.48341395624872252</v>
+      </c>
+      <c r="H33" s="123"/>
+      <c r="I33" s="124">
+        <v>0.53998913899059575</v>
+      </c>
+      <c r="J33" s="123"/>
+      <c r="K33" s="122">
+        <v>0.55376503919168529</v>
+      </c>
+      <c r="L33" s="122"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="24"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
@@ -2714,20 +4776,20 @@
       <c r="L56" s="19"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G57" s="85"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G58" s="77"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2783,12 +4845,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AF087E-D102-4B84-94C4-5B74DC1F0791}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,49 +4877,49 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="80" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="92"/>
+      <c r="H3" s="145"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93" t="s">
+      <c r="D4" s="145"/>
+      <c r="E4" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="91" t="s">
+      <c r="F4" s="147"/>
+      <c r="G4" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3016,18 +5078,18 @@
       <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="128">
         <v>38</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98">
+      <c r="D14" s="139"/>
+      <c r="E14" s="144">
         <v>38</v>
       </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="85">
+      <c r="F14" s="139"/>
+      <c r="G14" s="128">
         <v>38</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3035,65 +5097,65 @@
       <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="122">
         <v>0.55581969851319468</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100">
+      <c r="D15" s="150"/>
+      <c r="E15" s="155">
         <v>0.54352923406841147</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="77">
+      <c r="F15" s="156"/>
+      <c r="G15" s="122">
         <v>0.55189173576406514</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="80" t="s">
+      <c r="D17" s="145"/>
+      <c r="E17" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="80" t="s">
+      <c r="F17" s="145"/>
+      <c r="G17" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="92"/>
+      <c r="H17" s="145"/>
       <c r="I17" s="27"/>
     </row>
     <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93" t="s">
+      <c r="D18" s="145"/>
+      <c r="E18" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="91" t="s">
+      <c r="F18" s="147"/>
+      <c r="G18" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="91"/>
+      <c r="H18" s="120"/>
       <c r="I18" s="27"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3252,18 +5314,18 @@
       <c r="B28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="128">
         <v>38</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="98">
+      <c r="D28" s="139"/>
+      <c r="E28" s="144">
         <v>38</v>
       </c>
-      <c r="F28" s="97"/>
-      <c r="G28" s="85">
+      <c r="F28" s="139"/>
+      <c r="G28" s="128">
         <v>38</v>
       </c>
-      <c r="H28" s="85"/>
+      <c r="H28" s="128"/>
       <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3271,42 +5333,42 @@
       <c r="B29" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="104">
+      <c r="C29" s="140">
         <v>8.7068576318375279E-2</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="102">
+      <c r="D29" s="141"/>
+      <c r="E29" s="142">
         <v>0.1066523504141621</v>
       </c>
-      <c r="F29" s="103"/>
-      <c r="G29" s="77">
+      <c r="F29" s="141"/>
+      <c r="G29" s="122">
         <v>6.1086704610555098E-2</v>
       </c>
-      <c r="H29" s="77"/>
+      <c r="H29" s="122"/>
       <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
       <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
       <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3368,7 +5430,2954 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67960ACA-D433-4506-97D2-88BB510C36DA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA3CE20-4E38-4DAC-99F0-C5BA70A8985A}">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="106">
+        <v>-0.4</v>
+      </c>
+      <c r="D3" s="106">
+        <v>-0.3</v>
+      </c>
+      <c r="E3" s="106">
+        <v>-0.2</v>
+      </c>
+      <c r="F3" s="106">
+        <v>-0.1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="105">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" s="105">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E4" s="105">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F4" s="105">
+        <v>9.06E-2</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="105">
+        <v>0</v>
+      </c>
+      <c r="D5" s="105">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E5" s="105">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="F5" s="105">
+        <v>0.1226</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="105">
+        <v>0</v>
+      </c>
+      <c r="D6" s="105">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E6" s="105">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="105">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="103">
+        <v>0</v>
+      </c>
+      <c r="D7" s="103">
+        <v>0</v>
+      </c>
+      <c r="E7" s="103">
+        <v>0</v>
+      </c>
+      <c r="F7" s="103">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D776E906-2045-45B0-8F6B-944D8082224B}">
+  <dimension ref="A1:Q58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="12" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="134" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="132"/>
+      <c r="E3" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="132"/>
+      <c r="G3" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="132"/>
+      <c r="I3" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="132"/>
+      <c r="K3" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="132"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="132"/>
+      <c r="E4" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="126"/>
+      <c r="G4" s="125" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="126"/>
+      <c r="I4" s="127" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="126"/>
+      <c r="K4" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="125"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="70">
+        <v>1.4392436098165808</v>
+      </c>
+      <c r="D6" s="46">
+        <v>1.8965636641992889E-4</v>
+      </c>
+      <c r="E6" s="72">
+        <v>1.3952482971643869</v>
+      </c>
+      <c r="F6" s="46">
+        <v>4.6315886754617815E-4</v>
+      </c>
+      <c r="G6" s="70">
+        <v>0.96261319221976926</v>
+      </c>
+      <c r="H6" s="46">
+        <v>3.3250813840944072E-4</v>
+      </c>
+      <c r="I6" s="71">
+        <v>1.0715641058293468</v>
+      </c>
+      <c r="J6" s="46">
+        <v>1.715912520109182E-5</v>
+      </c>
+      <c r="K6" s="70">
+        <v>0.89828615408723267</v>
+      </c>
+      <c r="L6" s="19">
+        <v>4.861100167981418E-3</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="61">
+        <v>0.25005151524504055</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.62705046652566521</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="61">
+        <v>-0.51837330494533851</v>
+      </c>
+      <c r="J8" s="46">
+        <v>9.903820343451844E-2</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="48"/>
+      <c r="G10" s="70">
+        <v>0.1111145860055527</v>
+      </c>
+      <c r="H10" s="46">
+        <v>2.1337689386842087E-8</v>
+      </c>
+      <c r="I10" s="71">
+        <v>6.0217202868670668E-2</v>
+      </c>
+      <c r="J10" s="46">
+        <v>2.6660592765998486E-3</v>
+      </c>
+      <c r="K10" s="70">
+        <v>6.7110167795182418E-2</v>
+      </c>
+      <c r="L10" s="19">
+        <v>2.2803859863070975E-2</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="71">
+        <v>0.10266155324982125</v>
+      </c>
+      <c r="J12" s="46">
+        <v>4.5255663273653933E-4</v>
+      </c>
+      <c r="K12" s="70">
+        <v>9.2377907180778193E-2</v>
+      </c>
+      <c r="L12" s="19">
+        <v>8.6316542248287189E-3</v>
+      </c>
+      <c r="M12" s="27"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="57">
+        <v>-6.7885721085154836E-3</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.56614703710126002</v>
+      </c>
+      <c r="E14" s="61">
+        <v>-7.304699140441879E-3</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.54314137884098734</v>
+      </c>
+      <c r="G14" s="57">
+        <v>-4.0056277728618469E-3</v>
+      </c>
+      <c r="H14" s="46">
+        <v>0.6013497760080132</v>
+      </c>
+      <c r="I14" s="61">
+        <v>-8.2661430847859709E-4</v>
+      </c>
+      <c r="J14" s="46">
+        <v>0.89972759602599828</v>
+      </c>
+      <c r="K14" s="57">
+        <v>-1.5812601243914094E-3</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0.85191244575365876</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="128">
+        <v>38</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130">
+        <v>38</v>
+      </c>
+      <c r="F16" s="129"/>
+      <c r="G16" s="128">
+        <v>38</v>
+      </c>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130">
+        <v>38</v>
+      </c>
+      <c r="J16" s="129"/>
+      <c r="K16" s="128">
+        <v>38</v>
+      </c>
+      <c r="L16" s="128"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="122">
+        <v>0.30566541074933518</v>
+      </c>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124">
+        <v>0.29069709635633112</v>
+      </c>
+      <c r="F17" s="123"/>
+      <c r="G17" s="122">
+        <f>O17</f>
+        <v>0.71876082836776356</v>
+      </c>
+      <c r="H17" s="123"/>
+      <c r="I17" s="122">
+        <f>P17</f>
+        <v>0.79784647514222162</v>
+      </c>
+      <c r="J17" s="123"/>
+      <c r="K17" s="122">
+        <f>Q17</f>
+        <v>0.79344869668076934</v>
+      </c>
+      <c r="L17" s="123"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="7"/>
+      <c r="O17">
+        <v>0.71876082836776356</v>
+      </c>
+      <c r="P17">
+        <v>0.79784647514222162</v>
+      </c>
+      <c r="Q17">
+        <v>0.79344869668076934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="131" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="132"/>
+      <c r="I19" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="132"/>
+      <c r="K19" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="132"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:17" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="133" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="132"/>
+      <c r="I20" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="126"/>
+      <c r="K20" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="125"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="71">
+        <v>0.92067556528573535</v>
+      </c>
+      <c r="H22" s="46">
+        <v>1.2522816277238401E-2</v>
+      </c>
+      <c r="I22" s="71">
+        <v>1.0892451392185958</v>
+      </c>
+      <c r="J22" s="46">
+        <v>4.4605408044963409E-3</v>
+      </c>
+      <c r="K22" s="70">
+        <v>1.0521760427303393</v>
+      </c>
+      <c r="L22" s="19">
+        <v>2.4869006126655526E-3</v>
+      </c>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="61">
+        <v>-0.12165728495010443</v>
+      </c>
+      <c r="J24" s="46">
+        <v>0.79749978222486628</v>
+      </c>
+      <c r="K24" s="57"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="71">
+        <v>0.15817619507301198</v>
+      </c>
+      <c r="H26" s="46">
+        <v>9.7692692959280023E-4</v>
+      </c>
+      <c r="I26" s="61">
+        <v>6.555799200791726E-2</v>
+      </c>
+      <c r="J26" s="46">
+        <v>0.24961217829153678</v>
+      </c>
+      <c r="K26" s="57">
+        <v>7.1465319052942733E-2</v>
+      </c>
+      <c r="L26" s="19">
+        <v>0.16481843506732577</v>
+      </c>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="71">
+        <v>0.21218185275498289</v>
+      </c>
+      <c r="J28" s="46">
+        <v>1.4474560659634664E-2</v>
+      </c>
+      <c r="K28" s="70">
+        <v>0.20222585730117137</v>
+      </c>
+      <c r="L28" s="19">
+        <v>7.8515309430297105E-3</v>
+      </c>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="61">
+        <v>-4.2552890542707587E-3</v>
+      </c>
+      <c r="H30" s="46">
+        <v>0.68283868543671522</v>
+      </c>
+      <c r="I30" s="61">
+        <v>-2.4635004744281036E-3</v>
+      </c>
+      <c r="J30" s="46">
+        <v>0.79914012231054876</v>
+      </c>
+      <c r="K30" s="57">
+        <v>-2.7112607421864708E-3</v>
+      </c>
+      <c r="L30" s="19">
+        <v>0.7752182865627647</v>
+      </c>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="130">
+        <v>38</v>
+      </c>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130">
+        <v>38</v>
+      </c>
+      <c r="J32" s="129"/>
+      <c r="K32" s="128">
+        <v>38</v>
+      </c>
+      <c r="L32" s="128"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="124">
+        <f>O33</f>
+        <v>0.4819496155079448</v>
+      </c>
+      <c r="H33" s="123"/>
+      <c r="I33" s="124">
+        <f>P33</f>
+        <v>0.55802800544458586</v>
+      </c>
+      <c r="J33" s="123"/>
+      <c r="K33" s="124">
+        <f>Q33</f>
+        <v>0.57052453899058242</v>
+      </c>
+      <c r="L33" s="123"/>
+      <c r="M33" s="27"/>
+      <c r="O33">
+        <v>0.4819496155079448</v>
+      </c>
+      <c r="P33">
+        <v>0.55802800544458586</v>
+      </c>
+      <c r="Q33">
+        <v>0.57052453899058242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="24"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="24"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="24"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="24"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="19"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="24"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="19"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="24"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="82"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="19"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G54" s="59"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="19"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G55" s="57"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G56" s="27"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G57" s="128"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G58" s="122"/>
+      <c r="H58" s="123"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3:L3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B5881F-6CFA-41A5-919C-FB7F7567E04E}">
+  <dimension ref="A1:T33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="135" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="145"/>
+      <c r="E3" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="145"/>
+      <c r="G3" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="149"/>
+      <c r="I3" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="120"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="125" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="145"/>
+      <c r="E4" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="147"/>
+      <c r="G4" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="147"/>
+      <c r="I4" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="120"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="73">
+        <v>1.1414134862342871</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1.9660842194512557E-6</v>
+      </c>
+      <c r="E6" s="109">
+        <v>0.69878456698760327</v>
+      </c>
+      <c r="F6" s="36">
+        <v>8.5100171463696787E-4</v>
+      </c>
+      <c r="G6" s="115">
+        <v>0.48094163676777874</v>
+      </c>
+      <c r="H6" s="36">
+        <v>2.9125249160322782E-2</v>
+      </c>
+      <c r="I6" s="118">
+        <v>0.57036316752001603</v>
+      </c>
+      <c r="J6" s="119">
+        <v>1.1871940800642673E-2</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="109">
+        <v>-3.7554721185834535E-2</v>
+      </c>
+      <c r="F8" s="36">
+        <v>2.6671033227252712E-4</v>
+      </c>
+      <c r="G8" s="109">
+        <v>-4.318915055770936E-2</v>
+      </c>
+      <c r="H8" s="36">
+        <v>1.6301348091118869E-4</v>
+      </c>
+      <c r="I8" s="116"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="115">
+        <v>-3.7960119046436196E-2</v>
+      </c>
+      <c r="J10" s="25">
+        <v>4.2484125070392986E-4</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="65">
+        <v>-7.6445577005819438E-3</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0.22180417624519722</v>
+      </c>
+      <c r="E12" s="110">
+        <v>1.0089204762131949E-2</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0.13097011301752112</v>
+      </c>
+      <c r="G12" s="109">
+        <v>1.6477894008229549E-2</v>
+      </c>
+      <c r="H12" s="36">
+        <v>3.3897333676063887E-2</v>
+      </c>
+      <c r="I12" s="116">
+        <v>1.4766867559597984E-2</v>
+      </c>
+      <c r="J12" s="25">
+        <v>5.8787814329313778E-2</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="128">
+        <v>31</v>
+      </c>
+      <c r="D14" s="139"/>
+      <c r="E14" s="128">
+        <v>32</v>
+      </c>
+      <c r="F14" s="139"/>
+      <c r="G14" s="144">
+        <v>21</v>
+      </c>
+      <c r="H14" s="139"/>
+      <c r="I14" s="128">
+        <v>33</v>
+      </c>
+      <c r="J14" s="128"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="122">
+        <v>0.54748169925920098</v>
+      </c>
+      <c r="D15" s="150"/>
+      <c r="E15" s="142">
+        <v>0.72079177235443848</v>
+      </c>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142">
+        <v>0.78686339033740571</v>
+      </c>
+      <c r="H15" s="141"/>
+      <c r="I15" s="122">
+        <v>0.71181955033213884</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="131" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="145"/>
+      <c r="E17" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="145"/>
+      <c r="G17" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="149"/>
+      <c r="I17" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="120"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="145"/>
+      <c r="E18" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="147"/>
+      <c r="G18" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="147"/>
+      <c r="I18" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="120"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="65">
+        <v>0.34364854394446304</v>
+      </c>
+      <c r="D20" s="36">
+        <v>0.13754198634945194</v>
+      </c>
+      <c r="E20" s="110">
+        <v>0.14852748046156322</v>
+      </c>
+      <c r="F20" s="36">
+        <v>0.58719925305615739</v>
+      </c>
+      <c r="G20" s="110">
+        <v>0.12761691841459794</v>
+      </c>
+      <c r="H20" s="36">
+        <v>0.69772419300499222</v>
+      </c>
+      <c r="I20" s="110">
+        <v>0.13372055139681957</v>
+      </c>
+      <c r="J20" s="25">
+        <v>0.66390348080480854</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="110">
+        <v>-1.6554989558872399E-2</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0.21404077102029351</v>
+      </c>
+      <c r="G22" s="110">
+        <v>-1.4604281654523994E-2</v>
+      </c>
+      <c r="H22" s="36">
+        <v>0.32779838804144279</v>
+      </c>
+      <c r="I22" s="112"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="110">
+        <v>-1.3954797549592486E-2</v>
+      </c>
+      <c r="J24" s="25">
+        <v>0.31531404276168817</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24">
+        <v>7.4440075012162016E-2</v>
+      </c>
+      <c r="R24">
+        <v>0.12495814174111257</v>
+      </c>
+      <c r="S24">
+        <v>0.12729346666786981</v>
+      </c>
+      <c r="T24">
+        <v>0.1077538410482593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="65">
+        <v>1.1798076711569841E-2</v>
+      </c>
+      <c r="D26" s="36">
+        <v>0.10969140959163054</v>
+      </c>
+      <c r="E26" s="109">
+        <v>1.9615529301804744E-2</v>
+      </c>
+      <c r="F26" s="36">
+        <v>4.5557015446355646E-2</v>
+      </c>
+      <c r="G26" s="110">
+        <v>1.7737222176694642E-2</v>
+      </c>
+      <c r="H26" s="36">
+        <v>0.13838965272572096</v>
+      </c>
+      <c r="I26" s="110">
+        <v>2.0036904991350895E-2</v>
+      </c>
+      <c r="J26" s="25">
+        <v>7.3322049424395963E-2</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="128">
+        <v>31</v>
+      </c>
+      <c r="D28" s="139"/>
+      <c r="E28" s="128">
+        <v>32</v>
+      </c>
+      <c r="F28" s="139"/>
+      <c r="G28" s="144">
+        <v>21</v>
+      </c>
+      <c r="H28" s="139"/>
+      <c r="I28" s="128">
+        <v>33</v>
+      </c>
+      <c r="J28" s="128"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="140">
+        <v>7.4440075012162016E-2</v>
+      </c>
+      <c r="D29" s="141"/>
+      <c r="E29" s="142">
+        <v>0.12495814174111257</v>
+      </c>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142">
+        <v>0.12729346666786981</v>
+      </c>
+      <c r="H29" s="141"/>
+      <c r="I29" s="143">
+        <v>0.1077538410482593</v>
+      </c>
+      <c r="J29" s="122"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B30:J31"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3 E3 C17:J17 I3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E6F651-ACD0-45F1-9A3D-0EF0F457B298}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -3400,49 +8409,49 @@
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="80" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="92"/>
+      <c r="H3" s="145"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93" t="s">
+      <c r="D4" s="145"/>
+      <c r="E4" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="91" t="s">
+      <c r="F4" s="147"/>
+      <c r="G4" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="120"/>
       <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3601,18 +8610,18 @@
       <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="128">
         <v>38</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98">
+      <c r="D14" s="139"/>
+      <c r="E14" s="144">
         <v>38</v>
       </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="85">
+      <c r="F14" s="139"/>
+      <c r="G14" s="128">
         <v>38</v>
       </c>
-      <c r="H14" s="85"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3620,31 +8629,31 @@
       <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="140">
         <v>0.30174975366935675</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="102">
+      <c r="D15" s="141"/>
+      <c r="E15" s="142">
         <v>0.39073522278270301</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104">
+      <c r="F15" s="141"/>
+      <c r="G15" s="140">
         <v>0.29209621160241783</v>
       </c>
-      <c r="H15" s="104"/>
+      <c r="H15" s="140"/>
       <c r="I15" s="27"/>
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
       <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3726,7 +8735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626554E6-A927-4522-A53C-FCC47E758F2F}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -3754,20 +8763,20 @@
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="108"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="56" t="s">
         <v>68</v>
       </c>
@@ -3788,22 +8797,22 @@
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="88">
         <v>911042.78700000001</v>
       </c>
-      <c r="D4" s="110">
+      <c r="D4" s="81">
         <v>0.36906519408072541</v>
       </c>
-      <c r="E4" s="110">
+      <c r="E4" s="81">
         <v>0.31434646329075211</v>
       </c>
-      <c r="F4" s="110">
+      <c r="F4" s="81">
         <v>0.15890687689512437</v>
       </c>
-      <c r="G4" s="110">
+      <c r="G4" s="81">
         <v>0.15768146573339806</v>
       </c>
       <c r="H4" s="7"/>
@@ -3811,163 +8820,163 @@
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="114" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113" t="s">
+    <row r="6" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="120">
+      <c r="C6" s="91">
         <v>10575.165000000001</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="78">
         <v>0.69115848310641015</v>
       </c>
-      <c r="E6" s="107">
+      <c r="E6" s="78">
         <v>0</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="78">
         <v>0.14171381723122051</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="78">
         <v>0.16712769966236934</v>
       </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-    </row>
-    <row r="7" spans="1:9" s="114" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="120">
+      <c r="C7" s="91">
         <v>20536.884999999998</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="78">
         <v>0.57963732084977837</v>
       </c>
-      <c r="E7" s="107">
+      <c r="E7" s="78">
         <v>0.1847025486094897</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="78">
         <v>0.13156191895703753</v>
       </c>
-      <c r="G7" s="107">
+      <c r="G7" s="78">
         <v>0.10409821158369439</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-    </row>
-    <row r="8" spans="1:9" s="114" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113" t="s">
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+    </row>
+    <row r="8" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="120">
+      <c r="C8" s="91">
         <v>78205.404999999999</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="78">
         <v>0.55895732526415531</v>
       </c>
-      <c r="E8" s="107">
+      <c r="E8" s="78">
         <v>0.1675641344738257</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="78">
         <v>0.13845713093615461</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="78">
         <v>0.13502140932586429</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-    </row>
-    <row r="9" spans="1:9" s="114" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113" t="s">
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+    </row>
+    <row r="9" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="120">
+      <c r="C9" s="91">
         <v>27012.205999999998</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="78">
         <v>0.53649461284280153</v>
       </c>
-      <c r="E9" s="107">
+      <c r="E9" s="78">
         <v>0.21486338435298472</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="78">
         <v>9.1448954594822801E-2</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="78">
         <v>0.15719304820939101</v>
       </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-    </row>
-    <row r="10" spans="1:9" s="114" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
-      <c r="B10" s="115" t="s">
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+    </row>
+    <row r="10" spans="1:9" s="85" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="121">
+      <c r="C10" s="92">
         <v>151172.64300000001</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="80">
         <v>0.51550035412161177</v>
       </c>
-      <c r="E10" s="109">
+      <c r="E10" s="80">
         <v>0.25444222735458821</v>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="80">
         <v>9.1832475271335964E-2</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="80">
         <v>0.13822494325246396</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="118">
+      <c r="C12" s="89">
         <v>55086.438000000002</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="78">
         <v>0</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="78">
         <v>0.61111569784199882</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="78">
         <v>0.25396441497996297</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="78">
         <v>0.13491988717803821</v>
       </c>
       <c r="H12" s="7"/>
@@ -3975,22 +8984,22 @@
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="89">
         <v>20644.454000000002</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="78">
         <v>0</v>
       </c>
-      <c r="E13" s="107">
+      <c r="E13" s="78">
         <v>0.60635321234458417</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="78">
         <v>0.1803585117823896</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G13" s="78">
         <v>0.21328827587302626</v>
       </c>
       <c r="H13" s="7"/>
@@ -3998,22 +9007,22 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="89">
         <v>37217.758999999998</v>
       </c>
-      <c r="D14" s="107">
+      <c r="D14" s="78">
         <v>0</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="78">
         <v>0.585765924272872</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="78">
         <v>0.22933729029735508</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="78">
         <v>0.18489678542977286</v>
       </c>
       <c r="H14" s="7"/>
@@ -4021,22 +9030,22 @@
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="89">
         <v>1674.1079999999999</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="78">
         <v>0</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="78">
         <v>0.57988134576741768</v>
       </c>
-      <c r="F15" s="107">
+      <c r="F15" s="78">
         <v>0.24006694908572207</v>
       </c>
-      <c r="G15" s="107">
+      <c r="G15" s="78">
         <v>0.18005170514686028</v>
       </c>
       <c r="H15" s="7"/>
@@ -4044,22 +9053,22 @@
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="119">
+      <c r="C16" s="90">
         <v>7532.9889999999996</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="80">
         <v>0</v>
       </c>
-      <c r="E16" s="109">
+      <c r="E16" s="80">
         <v>0.54168498055685466</v>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="80">
         <v>0.2599580325950297</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="80">
         <v>0.19835698684811562</v>
       </c>
       <c r="H16" s="7"/>
@@ -4119,12 +9128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB904B2-7DCD-4875-9A24-218DF2B43987}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4147,17 +9156,17 @@
     </row>
     <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
+    <row r="3" spans="1:11" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="97"/>
       <c r="B3" s="56" t="s">
         <v>86</v>
       </c>
@@ -4173,46 +9182,46 @@
       <c r="F3" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="126"/>
-    </row>
-    <row r="4" spans="1:11" s="106" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
+      <c r="G3" s="97"/>
+    </row>
+    <row r="4" spans="1:11" s="77" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
       <c r="B4" s="56"/>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="129" t="s">
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="129" t="s">
+      <c r="K4" s="99" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="84">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="84">
         <v>1.2</v>
       </c>
-      <c r="E5" s="113">
+      <c r="E5" s="84">
         <v>0.5</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="84">
         <v>1.2</v>
       </c>
       <c r="G5" s="7"/>
@@ -4235,49 +9244,49 @@
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="84">
         <v>0.17</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="E6" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="84" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="84">
         <v>1.44</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="84">
         <v>1.2</v>
       </c>
-      <c r="E8" s="113">
+      <c r="E8" s="84">
         <v>0.5</v>
       </c>
-      <c r="F8" s="113">
+      <c r="F8" s="84">
         <v>1.2</v>
       </c>
       <c r="G8" s="7"/>
@@ -4303,16 +9312,16 @@
       <c r="B9" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="86" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="7"/>
@@ -4354,12 +9363,252 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E93F8-6F77-4D9D-A37F-18E004A609A0}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="7" width="19.7109375" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" s="77" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="97"/>
+    </row>
+    <row r="4" spans="1:8" s="77" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="97"/>
+    </row>
+    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="160" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="161">
+        <v>1.05</v>
+      </c>
+      <c r="E5" s="161">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="162">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="161">
+        <v>1.2</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="165">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="121" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="121"/>
+      <c r="D7" s="84">
+        <v>0</v>
+      </c>
+      <c r="E7" s="84">
+        <v>0</v>
+      </c>
+      <c r="F7" s="84">
+        <v>0</v>
+      </c>
+      <c r="G7" s="84">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="160" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="161">
+        <v>1.05</v>
+      </c>
+      <c r="E9" s="161">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="162">
+        <v>0</v>
+      </c>
+      <c r="G9" s="161">
+        <v>1.2</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="165">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167">
+        <v>0</v>
+      </c>
+      <c r="E11" s="168">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F11" s="169">
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="167">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5663A099-2651-493D-A992-060117A63C8A}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4380,13 +9629,13 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
@@ -4413,16 +9662,16 @@
       <c r="B4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="124">
+      <c r="C4" s="95">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D4" s="124">
+      <c r="D4" s="95">
         <v>0.2</v>
       </c>
-      <c r="E4" s="124">
+      <c r="E4" s="95">
         <v>0.1</v>
       </c>
-      <c r="F4" s="124">
+      <c r="F4" s="95">
         <v>0.15</v>
       </c>
       <c r="G4" s="27"/>
@@ -4433,16 +9682,16 @@
       <c r="B5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="125">
+      <c r="C5" s="96">
         <v>0</v>
       </c>
-      <c r="D5" s="125">
+      <c r="D5" s="96">
         <v>0.6</v>
       </c>
-      <c r="E5" s="125">
+      <c r="E5" s="96">
         <v>0.25</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="96">
         <v>0.15</v>
       </c>
       <c r="G5" s="27"/>
@@ -4489,14 +9738,14 @@
       <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
